--- a/Angular/mock_interview/1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/1st_round_mockinterview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4CA1DA-1062-FD4E-991B-301F74A43536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B7FDD-DEE7-174A-84AE-D0C401388128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8240" yWindow="1360" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Shiyu Huang</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Yan Yang</t>
+  </si>
+  <si>
+    <t>40/100</t>
   </si>
 </sst>
 </file>
@@ -695,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A32176-B521-B04F-91B5-4850AF0DE19A}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,6 +754,9 @@
         <v>1</v>
       </c>
       <c r="G2" s="5"/>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="12">
@@ -947,7 +953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="11">
         <v>1</v>
       </c>
@@ -957,27 +963,36 @@
       <c r="D17" s="11">
         <v>1</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2</v>
+      </c>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <v>3</v>
       </c>
       <c r="C18" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="11">
-        <v>3</v>
+      <c r="D18" s="11">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4</v>
       </c>
       <c r="F18" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <v>4</v>
       </c>
@@ -985,35 +1000,35 @@
         <v>4</v>
       </c>
       <c r="D19" s="11">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12">
         <v>5</v>
       </c>
-      <c r="E19" s="12">
-        <v>4</v>
-      </c>
       <c r="F19" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="11">
         <v>13</v>
       </c>
       <c r="C20" s="11">
         <v>5</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11">
         <v>6</v>
       </c>
-      <c r="E20" s="12">
-        <v>5</v>
-      </c>
       <c r="F20" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="11">
         <v>15</v>
       </c>
@@ -1021,99 +1036,88 @@
         <v>7</v>
       </c>
       <c r="D21" s="12">
+        <v>9</v>
+      </c>
+      <c r="E21" s="11">
         <v>7</v>
       </c>
-      <c r="E21" s="11">
-        <v>6</v>
-      </c>
-      <c r="F21" s="12">
-        <v>6</v>
+      <c r="F21" s="11">
+        <v>7</v>
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="12">
         <v>8</v>
       </c>
       <c r="D22" s="12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E22" s="11">
-        <v>7</v>
-      </c>
-      <c r="F22" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="12">
         <v>9</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="11">
+        <v>13</v>
+      </c>
+      <c r="E23" s="12">
+        <v>14</v>
+      </c>
       <c r="F23" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="12">
         <v>15</v>
       </c>
       <c r="D24" s="12">
-        <v>12</v>
-      </c>
-      <c r="E24" s="11">
-        <v>10</v>
-      </c>
-      <c r="F24" s="12">
+        <v>15</v>
+      </c>
+      <c r="E24" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="11">
-        <v>13</v>
+      <c r="D25" s="12">
+        <v>17</v>
       </c>
       <c r="E25" s="12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="12">
-        <v>15</v>
-      </c>
-      <c r="E26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="12">
-        <v>17</v>
-      </c>
-      <c r="E27" s="12">
-        <v>17</v>
-      </c>
       <c r="F27" s="13"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="12">
-        <v>18</v>
-      </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="5"/>

--- a/Angular/mock_interview/1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B7FDD-DEE7-174A-84AE-D0C401388128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DEFFB7-CD53-6A42-9BC1-ABCE0535DC0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="1360" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="1360" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Shiyu Huang</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>40/100</t>
+  </si>
+  <si>
+    <t>80/100</t>
   </si>
 </sst>
 </file>
@@ -696,10 +699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A32176-B521-B04F-91B5-4850AF0DE19A}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,7 +956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="11">
         <v>1</v>
       </c>
@@ -974,7 +977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <v>3</v>
       </c>
@@ -992,7 +995,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <v>4</v>
       </c>
@@ -1010,7 +1013,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="11">
         <v>13</v>
       </c>
@@ -1028,7 +1031,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" s="11">
         <v>15</v>
       </c>
@@ -1046,7 +1049,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="12">
         <v>8</v>
@@ -1061,7 +1064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="12">
         <v>9</v>
@@ -1076,7 +1079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="12">
         <v>15</v>
@@ -1088,7 +1091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="12">
@@ -1100,7 +1103,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="12">
@@ -1109,19 +1112,219 @@
       <c r="F26" s="13"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="F27" s="13"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="5"/>
     </row>
+    <row r="29" spans="1:11" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>3</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="11">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11">
+        <v>4</v>
+      </c>
+      <c r="F31" s="11">
+        <v>4</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="11">
+        <v>4</v>
+      </c>
+      <c r="C32" s="11">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11">
+        <v>6</v>
+      </c>
+      <c r="E32" s="12">
+        <v>5</v>
+      </c>
+      <c r="F32" s="11">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="11">
+        <v>13</v>
+      </c>
+      <c r="C33" s="11">
+        <v>5</v>
+      </c>
+      <c r="D33" s="11">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11">
+        <v>6</v>
+      </c>
+      <c r="F33" s="11">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="11">
+        <v>15</v>
+      </c>
+      <c r="C34" s="11">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11">
+        <v>9</v>
+      </c>
+      <c r="E34" s="12">
+        <v>7</v>
+      </c>
+      <c r="F34" s="11">
+        <v>7</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="13"/>
+      <c r="C35" s="11">
+        <v>8</v>
+      </c>
+      <c r="D35" s="11">
+        <v>12</v>
+      </c>
+      <c r="E35" s="12">
+        <v>10</v>
+      </c>
+      <c r="F35" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="13"/>
+      <c r="C36" s="11">
+        <v>9</v>
+      </c>
+      <c r="D36" s="11">
+        <v>13</v>
+      </c>
+      <c r="E36" s="11">
+        <v>14</v>
+      </c>
+      <c r="F36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="C37" s="11">
+        <v>15</v>
+      </c>
+      <c r="D37" s="12">
+        <v>15</v>
+      </c>
+      <c r="E37" s="12">
+        <v>16</v>
+      </c>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="11">
+        <v>17</v>
+      </c>
+      <c r="E38" s="11">
+        <v>17</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="12">
+        <v>18</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Angular/mock_interview/1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DEFFB7-CD53-6A42-9BC1-ABCE0535DC0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB7EB31-E993-AD44-848B-77939A77683E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="1360" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="920" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Shiyu Huang</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>80/100</t>
+  </si>
+  <si>
+    <t>21/100</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,6 +274,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A32176-B521-B04F-91B5-4850AF0DE19A}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1216,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" s="11">
         <v>13</v>
       </c>
@@ -1229,7 +1234,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="11">
         <v>15</v>
       </c>
@@ -1247,7 +1252,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11">
         <v>8</v>
@@ -1262,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11">
         <v>9</v>
@@ -1277,7 +1282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" s="14"/>
       <c r="C37" s="11">
         <v>15</v>
@@ -1290,7 +1295,7 @@
       </c>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="11">
@@ -1302,7 +1307,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="12">
@@ -1312,19 +1317,195 @@
       <c r="F39" s="13"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="F40" s="13"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="5"/>
     </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="15">
+        <v>1</v>
+      </c>
+      <c r="C43" s="16">
+        <v>1</v>
+      </c>
+      <c r="D43" s="16">
+        <v>1</v>
+      </c>
+      <c r="E43" s="15">
+        <v>3</v>
+      </c>
+      <c r="F43" s="16">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="K43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="16">
+        <v>3</v>
+      </c>
+      <c r="C44" s="16">
+        <v>2</v>
+      </c>
+      <c r="D44" s="15">
+        <v>5</v>
+      </c>
+      <c r="E44" s="16">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="15">
+        <v>4</v>
+      </c>
+      <c r="C45" s="15">
+        <v>4</v>
+      </c>
+      <c r="D45" s="16">
+        <v>6</v>
+      </c>
+      <c r="E45" s="16">
+        <v>5</v>
+      </c>
+      <c r="F45" s="16">
+        <v>5</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="15">
+        <v>13</v>
+      </c>
+      <c r="C46" s="16">
+        <v>5</v>
+      </c>
+      <c r="D46" s="16">
+        <v>7</v>
+      </c>
+      <c r="E46" s="15">
+        <v>6</v>
+      </c>
+      <c r="F46" s="16">
+        <v>6</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="15">
+        <v>15</v>
+      </c>
+      <c r="C47" s="16">
+        <v>7</v>
+      </c>
+      <c r="D47" s="15">
+        <v>9</v>
+      </c>
+      <c r="E47" s="16">
+        <v>7</v>
+      </c>
+      <c r="F47" s="16">
+        <v>7</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C48" s="16">
+        <v>8</v>
+      </c>
+      <c r="D48" s="16">
+        <v>12</v>
+      </c>
+      <c r="E48" s="16">
+        <v>10</v>
+      </c>
+      <c r="F48" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="16">
+        <v>9</v>
+      </c>
+      <c r="D49" s="16">
+        <v>13</v>
+      </c>
+      <c r="E49" s="16">
+        <v>14</v>
+      </c>
+      <c r="F49" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50" s="16">
+        <v>15</v>
+      </c>
+      <c r="E50" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D51" s="16">
+        <v>17</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D52" s="15">
+        <v>18</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Angular/mock_interview/1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB7EB31-E993-AD44-848B-77939A77683E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B44A8-B02D-A94F-B9D4-86DD111FFACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="920" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="960" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Shiyu Huang</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>21/100</t>
+  </si>
+  <si>
+    <t>Yixing Zhang</t>
+  </si>
+  <si>
+    <t>27/100</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,10 +710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A32176-B521-B04F-91B5-4850AF0DE19A}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C49" s="16">
         <v>9</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>15</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D51" s="16">
         <v>17</v>
       </c>
@@ -1500,13 +1506,221 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D52" s="15">
         <v>18</v>
       </c>
       <c r="G52" s="5"/>
     </row>
+    <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="16">
+        <v>1</v>
+      </c>
+      <c r="C56" s="15">
+        <v>1</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="K56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="16">
+        <v>3</v>
+      </c>
+      <c r="C57" s="16">
+        <v>2</v>
+      </c>
+      <c r="D57" s="16">
+        <v>2</v>
+      </c>
+      <c r="E57" s="15">
+        <v>3</v>
+      </c>
+      <c r="F57" s="15">
+        <v>2</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="16">
+        <v>4</v>
+      </c>
+      <c r="C58" s="16">
+        <v>4</v>
+      </c>
+      <c r="D58" s="15">
+        <v>5</v>
+      </c>
+      <c r="E58" s="16">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="16">
+        <v>13</v>
+      </c>
+      <c r="C59" s="16">
+        <v>5</v>
+      </c>
+      <c r="D59" s="16">
+        <v>6</v>
+      </c>
+      <c r="E59" s="16">
+        <v>5</v>
+      </c>
+      <c r="F59" s="16">
+        <v>5</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="16">
+        <v>15</v>
+      </c>
+      <c r="C60" s="16">
+        <v>7</v>
+      </c>
+      <c r="D60" s="16">
+        <v>7</v>
+      </c>
+      <c r="E60" s="15">
+        <v>6</v>
+      </c>
+      <c r="F60" s="15">
+        <v>6</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="16">
+        <v>17</v>
+      </c>
+      <c r="C61" s="15">
+        <v>8</v>
+      </c>
+      <c r="D61" s="16">
+        <v>9</v>
+      </c>
+      <c r="E61" s="16">
+        <v>7</v>
+      </c>
+      <c r="F61" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C62" s="16">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>9</v>
+      </c>
+      <c r="F62" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C63" s="16">
+        <v>15</v>
+      </c>
+      <c r="D63" s="16">
+        <v>12</v>
+      </c>
+      <c r="E63" s="15">
+        <v>10</v>
+      </c>
+      <c r="F63" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D64" s="16">
+        <v>13</v>
+      </c>
+      <c r="E64" s="16">
+        <v>14</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D65" s="16">
+        <v>15</v>
+      </c>
+      <c r="E65" s="16">
+        <v>16</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D66" s="16">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>17</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D67" s="16">
+        <v>18</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>